--- a/DOE_CHP_DriveSystem/Project Outputs for DOE_CHP_DriveSystem/DOE_CHP_DriveSystem_BOM.xlsx
+++ b/DOE_CHP_DriveSystem/Project Outputs for DOE_CHP_DriveSystem/DOE_CHP_DriveSystem_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MasterGnome\Documents\01-WISC\Research\CHP\CabinentBuildOut\Altium\DOE_CHP_DriveSystem\Project Outputs for DOE_CHP_DriveSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE4C69F-1C5D-4F58-888A-671CCA3F4D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3999F640-92FF-48D9-99A1-3178F4FD66FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="13440" xr2:uid="{2D6762D8-AF39-4E88-BAE5-57FDF54AA5D4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
   <si>
     <t>Comment</t>
   </si>
@@ -50,33 +50,18 @@
     <t>Designator</t>
   </si>
   <si>
-    <t>Footprint</t>
-  </si>
-  <si>
-    <t>LibRef</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>DIN_PSU_5Vdc</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>CMP-019-00052-1</t>
-  </si>
-  <si>
     <t>NMA0515</t>
   </si>
   <si>
     <t>Module DC-DC 5VIN 2-OUT 15V/-15V 0.033A/-0.033A 1W 5-Pin SIP Tube</t>
   </si>
   <si>
-    <t>CMP-019-00053-1</t>
-  </si>
-  <si>
     <t>DIN_PSU_15Vdc</t>
   </si>
   <si>
@@ -86,9 +71,6 @@
     <t>*1</t>
   </si>
   <si>
-    <t>CMP-019-00050-1</t>
-  </si>
-  <si>
     <t>AMDS measurement system</t>
   </si>
   <si>
@@ -98,9 +80,6 @@
     <t>*?, AMDS_1</t>
   </si>
   <si>
-    <t>CMP-001-0003-2</t>
-  </si>
-  <si>
     <t>DIN_PSU_24Vdc</t>
   </si>
   <si>
@@ -110,9 +89,6 @@
     <t>[NoValue], *2, *3, *4</t>
   </si>
   <si>
-    <t>CMP-019-00049-1</t>
-  </si>
-  <si>
     <t>AMDS_ADC_Curr</t>
   </si>
   <si>
@@ -122,9 +98,6 @@
     <t>[NoValue], AMDS_Curr_ADC_1</t>
   </si>
   <si>
-    <t>CMP-001-0007-5, CMP-001-0007-3</t>
-  </si>
-  <si>
     <t>AMDS_ADC_HV</t>
   </si>
   <si>
@@ -134,9 +107,6 @@
     <t>[NoValue], AMDS_HV_ADC_1</t>
   </si>
   <si>
-    <t>CMP-001-0005-4, CMP-001-0005-3</t>
-  </si>
-  <si>
     <t>Wago 260</t>
   </si>
   <si>
@@ -146,9 +116,6 @@
     <t>+1, +2, +24Vdc, 24Vdc -, 24Vdc - _2, 24Vdc +, 24Vdc + _2, Gnd, Gnd1, Gnd2, PWM1, PWM2, PWM3, PWM4, PWM?, Tach1, Tach2, Tach3, Tach4</t>
   </si>
   <si>
-    <t>CMP-002-00072-3, CMP-002-00072-2</t>
-  </si>
-  <si>
     <t>Bus Bar</t>
   </si>
   <si>
@@ -158,9 +125,6 @@
     <t>AC1 (U), AC2 (V), AC3 (W), DC -, DC -1, DC -2, DC -?, DC +, DC +1, DC +2, DC +?, Load, Load1, Phase U, Phase U1, Phase V, Phase V1, Phase W, Phase W1</t>
   </si>
   <si>
-    <t>CMP-001-0000-1</t>
-  </si>
-  <si>
     <t>AMDC</t>
   </si>
   <si>
@@ -170,9 +134,6 @@
     <t>AMDC_1</t>
   </si>
   <si>
-    <t>CMP-001-0004-4</t>
-  </si>
-  <si>
     <t>AMDS_ADC_LV</t>
   </si>
   <si>
@@ -182,9 +143,6 @@
     <t>AMDS LV ADC 1, AMDS LV ADC 2, AMDS LV ADC 3, AMDS LV ADC 4, AMDS_LV_ADC_1</t>
   </si>
   <si>
-    <t>CMP-001-0006-5</t>
-  </si>
-  <si>
     <t>AWHW20G-SMD</t>
   </si>
   <si>
@@ -194,9 +152,6 @@
     <t>BrakeChopperConnector, BrakeChopperConnector1</t>
   </si>
   <si>
-    <t>CMP-002-00075-1</t>
-  </si>
-  <si>
     <t>09185206813</t>
   </si>
   <si>
@@ -212,12 +167,6 @@
     <t>C1, C2</t>
   </si>
   <si>
-    <t>CAPC1608X94X35NL15T15</t>
-  </si>
-  <si>
-    <t>CMP-001-00003-6</t>
-  </si>
-  <si>
     <t>2-338069-0</t>
   </si>
   <si>
@@ -227,9 +176,6 @@
     <t>ControlConnection_X1, ControlConnection_X?, LogicInput_X1</t>
   </si>
   <si>
-    <t>CMP-002-00071-1</t>
-  </si>
-  <si>
     <t>Molex 22-11-1041</t>
   </si>
   <si>
@@ -239,9 +185,6 @@
     <t>Current Sense U, Current Sense V, Current Sense W, CurrSense U, CurrSense U2, CurrSense V, CurrSense V2, CurrSense W, CurrSense W2</t>
   </si>
   <si>
-    <t>CMP-002-00073-1</t>
-  </si>
-  <si>
     <t>Molex 5051-04</t>
   </si>
   <si>
@@ -257,12 +200,6 @@
     <t>D1</t>
   </si>
   <si>
-    <t>FAIR-DO-35-2</t>
-  </si>
-  <si>
-    <t>CMP-004-00021-2</t>
-  </si>
-  <si>
     <t>B5819W</t>
   </si>
   <si>
@@ -272,12 +209,6 @@
     <t>D2, D3</t>
   </si>
   <si>
-    <t>MCC-SOD123_V</t>
-  </si>
-  <si>
-    <t>CMP-004-00005-2</t>
-  </si>
-  <si>
     <t>FAULT</t>
   </si>
   <si>
@@ -287,12 +218,6 @@
     <t>DS1</t>
   </si>
   <si>
-    <t>LED-2P-2.28-3MM_A</t>
-  </si>
-  <si>
-    <t>CMP-007-00007-2</t>
-  </si>
-  <si>
     <t>Connector 15</t>
   </si>
   <si>
@@ -302,9 +227,6 @@
     <t>J1, J2, J3, J4</t>
   </si>
   <si>
-    <t>050DSUB0.762-4H15</t>
-  </si>
-  <si>
     <t>2-215083-0</t>
   </si>
   <si>
@@ -314,12 +236,6 @@
     <t>P1</t>
   </si>
   <si>
-    <t>HDR1X20</t>
-  </si>
-  <si>
-    <t>Header 20</t>
-  </si>
-  <si>
     <t>Semikron_SKS_170F_B6Ci_141_V12_IO</t>
   </si>
   <si>
@@ -329,9 +245,6 @@
     <t>PowerStack_1, SemikronPwrStck</t>
   </si>
   <si>
-    <t>CMP-001-0001-4, CMP-001-0001-3</t>
-  </si>
-  <si>
     <t>MFR-25FBF52-1K</t>
   </si>
   <si>
@@ -341,12 +254,6 @@
     <t>R1</t>
   </si>
   <si>
-    <t>RESA60-630X240</t>
-  </si>
-  <si>
-    <t>CMP-009-00048-4</t>
-  </si>
-  <si>
     <t>4D7R5J</t>
   </si>
   <si>
@@ -356,12 +263,6 @@
     <t>R2, R3, R4, R5, R7, R8, R9, R10, R11, R12, R13</t>
   </si>
   <si>
-    <t>RESC0805(2012)_L</t>
-  </si>
-  <si>
-    <t>CMP-009-00106-2</t>
-  </si>
-  <si>
     <t>MFR-25FBF52-100R</t>
   </si>
   <si>
@@ -371,9 +272,6 @@
     <t>R6</t>
   </si>
   <si>
-    <t>CMP-009-00046-4</t>
-  </si>
-  <si>
     <t>Semikron_BrakeChopper</t>
   </si>
   <si>
@@ -383,9 +281,6 @@
     <t>SemikronBrakeChop, SemikronBrakeChop1</t>
   </si>
   <si>
-    <t>CMP-001-0002-3, CMP-001-0002-4</t>
-  </si>
-  <si>
     <t>RESET</t>
   </si>
   <si>
@@ -395,12 +290,6 @@
     <t>SW1</t>
   </si>
   <si>
-    <t>OMRON-B3U-3000P_V</t>
-  </si>
-  <si>
-    <t>CMP-011-00005-2</t>
-  </si>
-  <si>
     <t>SN74HC02N</t>
   </si>
   <si>
@@ -410,12 +299,6 @@
     <t>U1</t>
   </si>
   <si>
-    <t>N0014A</t>
-  </si>
-  <si>
-    <t>CMP-016-00010-1</t>
-  </si>
-  <si>
     <t>SN74ACT14N</t>
   </si>
   <si>
@@ -425,9 +308,6 @@
     <t>U2</t>
   </si>
   <si>
-    <t>CMP-015-00008-1</t>
-  </si>
-  <si>
     <t>MCP1407</t>
   </si>
   <si>
@@ -437,10 +317,7 @@
     <t>U3</t>
   </si>
   <si>
-    <t>PDIP300-P8</t>
-  </si>
-  <si>
-    <t>CMP-024-00000-1</t>
+    <t>Qnty</t>
   </si>
 </sst>
 </file>
@@ -497,12 +374,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,650 +705,461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0DB7ED-1A7C-42A0-ACDA-E2455D3FE822}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection sqref="A1:D32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="173.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="19" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="47.88671875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1">
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="1">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1">
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="B29" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="C29" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="B30" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C30" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="B31" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="C31" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="B32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="C32" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F32" s="1">
+      <c r="D32" s="1">
         <v>1</v>
       </c>
     </row>
